--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnc-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnc-Itgav.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.948174</v>
+        <v>3.575558</v>
       </c>
       <c r="H2">
-        <v>26.844522</v>
+        <v>10.726674</v>
       </c>
       <c r="I2">
-        <v>0.0695931738232498</v>
+        <v>0.025194653521236</v>
       </c>
       <c r="J2">
-        <v>0.0695931738232498</v>
+        <v>0.02519465352123599</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N2">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q2">
-        <v>120.274813792806</v>
+        <v>31.53873613787867</v>
       </c>
       <c r="R2">
-        <v>1082.473324135254</v>
+        <v>283.848625240908</v>
       </c>
       <c r="S2">
-        <v>0.006244652646456564</v>
+        <v>0.001616273973969911</v>
       </c>
       <c r="T2">
-        <v>0.006244652646456564</v>
+        <v>0.001616273973969911</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.948174</v>
+        <v>3.575558</v>
       </c>
       <c r="H3">
-        <v>26.844522</v>
+        <v>10.726674</v>
       </c>
       <c r="I3">
-        <v>0.0695931738232498</v>
+        <v>0.025194653521236</v>
       </c>
       <c r="J3">
-        <v>0.0695931738232498</v>
+        <v>0.02519465352123599</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q3">
-        <v>489.56833498709</v>
+        <v>195.62426666153</v>
       </c>
       <c r="R3">
-        <v>4406.11501488381</v>
+        <v>1760.61839995377</v>
       </c>
       <c r="S3">
-        <v>0.02541832410536913</v>
+        <v>0.01002520866719954</v>
       </c>
       <c r="T3">
-        <v>0.02541832410536913</v>
+        <v>0.01002520866719954</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.948174</v>
+        <v>3.575558</v>
       </c>
       <c r="H4">
-        <v>26.844522</v>
+        <v>10.726674</v>
       </c>
       <c r="I4">
-        <v>0.0695931738232498</v>
+        <v>0.025194653521236</v>
       </c>
       <c r="J4">
-        <v>0.0695931738232498</v>
+        <v>0.02519465352123599</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N4">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q4">
-        <v>160.7587659930613</v>
+        <v>78.33390867180665</v>
       </c>
       <c r="R4">
-        <v>1446.828893937552</v>
+        <v>705.00517804626</v>
       </c>
       <c r="S4">
-        <v>0.008346574164970413</v>
+        <v>0.004014398589470331</v>
       </c>
       <c r="T4">
-        <v>0.008346574164970415</v>
+        <v>0.00401439858947033</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.948174</v>
+        <v>3.575558</v>
       </c>
       <c r="H5">
-        <v>26.844522</v>
+        <v>10.726674</v>
       </c>
       <c r="I5">
-        <v>0.0695931738232498</v>
+        <v>0.025194653521236</v>
       </c>
       <c r="J5">
-        <v>0.0695931738232498</v>
+        <v>0.02519465352123599</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N5">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q5">
-        <v>569.7938600971401</v>
+        <v>186.132318652322</v>
       </c>
       <c r="R5">
-        <v>5128.144740874261</v>
+        <v>1675.190867870898</v>
       </c>
       <c r="S5">
-        <v>0.02958362290645368</v>
+        <v>0.009538772290596208</v>
       </c>
       <c r="T5">
-        <v>0.02958362290645368</v>
+        <v>0.009538772290596208</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>317.640397</v>
       </c>
       <c r="I6">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="J6">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N6">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q6">
-        <v>1423.163340447931</v>
+        <v>933.9313069189972</v>
       </c>
       <c r="R6">
-        <v>12808.47006403138</v>
+        <v>8405.381762270974</v>
       </c>
       <c r="S6">
-        <v>0.07389045503390092</v>
+        <v>0.04786142533580962</v>
       </c>
       <c r="T6">
-        <v>0.07389045503390092</v>
+        <v>0.04786142533580962</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>317.640397</v>
       </c>
       <c r="I7">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="J7">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q7">
         <v>5792.864565959798</v>
@@ -883,10 +883,10 @@
         <v>52135.78109363819</v>
       </c>
       <c r="S7">
-        <v>0.3007647727869441</v>
+        <v>0.2968684665029537</v>
       </c>
       <c r="T7">
-        <v>0.3007647727869441</v>
+        <v>0.2968684665029537</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>317.640397</v>
       </c>
       <c r="I8">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="J8">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N8">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q8">
-        <v>1902.193611466283</v>
+        <v>2319.639232913615</v>
       </c>
       <c r="R8">
-        <v>17119.74250319655</v>
+        <v>20876.75309622253</v>
       </c>
       <c r="S8">
-        <v>0.09876164423233708</v>
+        <v>0.1188751668667842</v>
       </c>
       <c r="T8">
-        <v>0.09876164423233709</v>
+        <v>0.1188751668667842</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>317.640397</v>
       </c>
       <c r="I9">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="J9">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N9">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q9">
-        <v>6742.140833404224</v>
+        <v>5511.787119777674</v>
       </c>
       <c r="R9">
-        <v>60679.26750063802</v>
+        <v>49606.08407799906</v>
       </c>
       <c r="S9">
-        <v>0.3500510727925884</v>
+        <v>0.2824640160852822</v>
       </c>
       <c r="T9">
-        <v>0.3500510727925885</v>
+        <v>0.2824640160852823</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.635153</v>
+        <v>32.36130266666667</v>
       </c>
       <c r="H10">
-        <v>40.905459</v>
+        <v>97.08390800000001</v>
       </c>
       <c r="I10">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="J10">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N10">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q10">
-        <v>183.273759329157</v>
+        <v>285.4476380699263</v>
       </c>
       <c r="R10">
-        <v>1649.463833962413</v>
+        <v>2569.028742629336</v>
       </c>
       <c r="S10">
-        <v>0.009515549682682764</v>
+        <v>0.01462841080018739</v>
       </c>
       <c r="T10">
-        <v>0.009515549682682764</v>
+        <v>0.01462841080018739</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.635153</v>
+        <v>32.36130266666667</v>
       </c>
       <c r="H11">
-        <v>40.905459</v>
+        <v>97.08390800000001</v>
       </c>
       <c r="I11">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="J11">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q11">
-        <v>746.000150589855</v>
+        <v>1770.536543492927</v>
       </c>
       <c r="R11">
-        <v>6714.001355308695</v>
+        <v>15934.82889143634</v>
       </c>
       <c r="S11">
-        <v>0.03873223052885386</v>
+        <v>0.09073515573673659</v>
       </c>
       <c r="T11">
-        <v>0.03873223052885385</v>
+        <v>0.0907351557367366</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.635153</v>
+        <v>32.36130266666667</v>
       </c>
       <c r="H12">
-        <v>40.905459</v>
+        <v>97.08390800000001</v>
       </c>
       <c r="I12">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="J12">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N12">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q12">
-        <v>244.962868447416</v>
+        <v>708.976704500769</v>
       </c>
       <c r="R12">
-        <v>2204.665816026744</v>
+        <v>6380.790340506921</v>
       </c>
       <c r="S12">
-        <v>0.01271844018290423</v>
+        <v>0.03633311717457503</v>
       </c>
       <c r="T12">
-        <v>0.01271844018290423</v>
+        <v>0.03633311717457503</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.635153</v>
+        <v>32.36130266666667</v>
       </c>
       <c r="H13">
-        <v>40.905459</v>
+        <v>97.08390800000001</v>
       </c>
       <c r="I13">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="J13">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N13">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q13">
-        <v>868.2471374478301</v>
+        <v>1684.627769974991</v>
       </c>
       <c r="R13">
-        <v>7814.224237030471</v>
+        <v>15161.64992977492</v>
       </c>
       <c r="S13">
-        <v>0.04507927814365262</v>
+        <v>0.08633256603987326</v>
       </c>
       <c r="T13">
-        <v>0.04507927814365262</v>
+        <v>0.08633256603987327</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1148696666666667</v>
+        <v>0.1003386666666667</v>
       </c>
       <c r="H14">
-        <v>0.3446090000000001</v>
+        <v>0.301016</v>
       </c>
       <c r="I14">
-        <v>0.0008933827928862467</v>
+        <v>0.000707021936561918</v>
       </c>
       <c r="J14">
-        <v>0.0008933827928862467</v>
+        <v>0.0007070219365619179</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N14">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q14">
-        <v>1.543994089607</v>
+        <v>0.8850519925635556</v>
       </c>
       <c r="R14">
-        <v>13.895946806463</v>
+        <v>7.965467933072</v>
       </c>
       <c r="S14">
-        <v>8.016397177207143E-05</v>
+        <v>4.535649415173118E-05</v>
       </c>
       <c r="T14">
-        <v>8.016397177207143E-05</v>
+        <v>4.535649415173117E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1148696666666667</v>
+        <v>0.1003386666666667</v>
       </c>
       <c r="H15">
-        <v>0.3446090000000001</v>
+        <v>0.301016</v>
       </c>
       <c r="I15">
-        <v>0.0008933827928862467</v>
+        <v>0.000707021936561918</v>
       </c>
       <c r="J15">
-        <v>0.0008933827928862467</v>
+        <v>0.0007070219365619179</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>164.134605</v>
       </c>
       <c r="O15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q15">
-        <v>6.284695788271668</v>
+        <v>5.489682473186667</v>
       </c>
       <c r="R15">
-        <v>56.562262094445</v>
+        <v>49.40714225868</v>
       </c>
       <c r="S15">
-        <v>0.0003263005857071008</v>
+        <v>0.000281331213399954</v>
       </c>
       <c r="T15">
-        <v>0.0003263005857071008</v>
+        <v>0.000281331213399954</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1148696666666667</v>
+        <v>0.1003386666666667</v>
       </c>
       <c r="H16">
-        <v>0.3446090000000001</v>
+        <v>0.301016</v>
       </c>
       <c r="I16">
-        <v>0.0008933827928862467</v>
+        <v>0.000707021936561918</v>
       </c>
       <c r="J16">
-        <v>0.0008933827928862467</v>
+        <v>0.0007070219365619179</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N16">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q16">
-        <v>2.063695438127111</v>
+        <v>2.198235897982222</v>
       </c>
       <c r="R16">
-        <v>18.573258943144</v>
+        <v>19.78412308184</v>
       </c>
       <c r="S16">
-        <v>0.0001071467980102715</v>
+        <v>0.0001126535779690891</v>
       </c>
       <c r="T16">
-        <v>0.0001071467980102715</v>
+        <v>0.0001126535779690891</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1148696666666667</v>
+        <v>0.1003386666666667</v>
       </c>
       <c r="H17">
-        <v>0.3446090000000001</v>
+        <v>0.301016</v>
       </c>
       <c r="I17">
-        <v>0.0008933827928862467</v>
+        <v>0.000707021936561918</v>
       </c>
       <c r="J17">
-        <v>0.0008933827928862467</v>
+        <v>0.0007070219365619179</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N17">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q17">
-        <v>7.314568399996669</v>
+        <v>5.223315822914667</v>
       </c>
       <c r="R17">
-        <v>65.83111559997002</v>
+        <v>47.009842406232</v>
       </c>
       <c r="S17">
-        <v>0.0003797714373968029</v>
+        <v>0.0002676806510411436</v>
       </c>
       <c r="T17">
-        <v>0.000379771437396803</v>
+        <v>0.0002676806510411436</v>
       </c>
     </row>
   </sheetData>
